--- a/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
+++ b/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\ccs\CCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/ccs/CCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405BF9F-1D3A-4C50-AE6F-24D97B944D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D9D8A9-DB1C-C447-B0A1-A04A0939734C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="510" windowWidth="24540" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="520" windowWidth="24540" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Source:</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>process emissions</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -663,25 +666,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,41 +695,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -732,7 +738,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -741,45 +747,45 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -799,17 +805,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -817,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -825,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -857,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -873,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -889,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -897,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -905,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -921,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -952,14 +958,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -970,7 +976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -981,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -992,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>

--- a/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
+++ b/InputData/ccs/CCP/CO2 Capture Potentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/ccs/CCP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ccs/ccp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D9D8A9-DB1C-C447-B0A1-A04A0939734C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887E65B-8E85-294F-81CA-C319405F6B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="520" windowWidth="24540" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Source:</t>
   </si>
@@ -100,34 +100,7 @@
     <t>Unit: dimentionless (fraction of CO2 capturable)</t>
   </si>
   <si>
-    <t>cement and other carbonates</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>other industries</t>
-  </si>
-  <si>
     <t>This variable should specify the share of CO2 emissions from each industry or power plant that could</t>
-  </si>
-  <si>
-    <t>For industries, we assign 100% to all industries except mining, agriculture, and waste management, as the activities</t>
   </si>
   <si>
     <t>in those industries are dispersed across areas (rather than concentrated inside machines in buildings) and in some cases,</t>
@@ -237,7 +210,85 @@
     <t>process emissions</t>
   </si>
   <si>
-    <t>Wisconsin</t>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>For industries, we assign 100% to all industries except mining, agriculture, construction, and water and waste, as the activities</t>
+  </si>
+  <si>
+    <t>(We assume CO2 from "water and waste" is from waste collection trucks, not water treatment plants, which use almost entirely electricity.)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -319,6 +370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,8 +730,8 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
+      <c r="C1" s="11">
+        <v>44307</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -705,22 +757,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -731,7 +783,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -740,7 +792,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -749,45 +801,52 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -954,13 +1013,13 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
@@ -970,98 +1029,285 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
